--- a/WebAutomation/resources/TestData.xlsx
+++ b/WebAutomation/resources/TestData.xlsx
@@ -14,13 +14,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>Column 4</t>
+  </si>
+  <si>
+    <t>Column 5</t>
+  </si>
+  <si>
+    <t>now third</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,12 +75,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -56,7 +104,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,8 +431,73 @@
     <col min="11" max="11" width="17.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
